--- a/LOCA2_inventory_full.xlsx
+++ b/LOCA2_inventory_full.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8170A9D1-29F0-2741-937C-23ADD12BB497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6CF44-C883-5D48-94BD-53FE08DF0571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="14840" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCA2_inventory_full" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1036,12 +1036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2594" sqref="B2594"/>
+      <selection activeCell="K2604" sqref="K2604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60690,7 +60690,7 @@
     </row>
     <row r="2594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2594" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B2594" t="s">
         <v>8</v>
@@ -60702,21 +60702,21 @@
         <v>56</v>
       </c>
       <c r="E2594">
-        <v>10.6240293674292</v>
+        <v>6.0761830123853198</v>
       </c>
       <c r="F2594">
-        <v>0.84261497731763502</v>
+        <v>0.964365076099295</v>
       </c>
       <c r="G2594">
-        <v>10.6573918009989</v>
+        <v>6.1522353661088101</v>
       </c>
     </row>
     <row r="2595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2595" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2595" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2595" t="s">
         <v>57</v>
@@ -60725,21 +60725,21 @@
         <v>56</v>
       </c>
       <c r="E2595">
-        <v>10.647534925981599</v>
+        <v>6.2833112289619999</v>
       </c>
       <c r="F2595">
-        <v>2.7202941017470801</v>
+        <v>0.96953597148326498</v>
       </c>
       <c r="G2595">
-        <v>10.989540481749</v>
+        <v>6.3576725301009303</v>
       </c>
     </row>
     <row r="2596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2596" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B2596" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2596" t="s">
         <v>57</v>
@@ -60748,21 +60748,21 @@
         <v>56</v>
       </c>
       <c r="E2596">
-        <v>10.341179816636</v>
+        <v>6.4007812023220998</v>
       </c>
       <c r="F2596">
-        <v>2.9257477676655501</v>
+        <v>1.12249721603218</v>
       </c>
       <c r="G2596">
-        <v>10.7470926301023</v>
+        <v>6.49846135635197</v>
       </c>
     </row>
     <row r="2597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2597" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2597" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2597" t="s">
         <v>57</v>
@@ -60771,21 +60771,21 @@
         <v>56</v>
       </c>
       <c r="E2597">
-        <v>9.9010100494848494</v>
+        <v>6.4560049566275799</v>
       </c>
       <c r="F2597">
-        <v>1.9235384061671299</v>
+        <v>0.86023252670426198</v>
       </c>
       <c r="G2597">
-        <v>10.0861290890013</v>
+        <v>6.51306379517351</v>
       </c>
     </row>
     <row r="2598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2598" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B2598" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2598" t="s">
         <v>57</v>
@@ -60794,21 +60794,21 @@
         <v>56</v>
       </c>
       <c r="E2598">
-        <v>10.8351280564652</v>
+        <v>6.59696900098825</v>
       </c>
       <c r="F2598">
-        <v>1.4560219778561001</v>
+        <v>0.90553851381374095</v>
       </c>
       <c r="G2598">
-        <v>10.9325202949731</v>
+        <v>6.6588287258345904</v>
       </c>
     </row>
     <row r="2599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2599" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B2599" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2599" t="s">
         <v>57</v>
@@ -60817,21 +60817,21 @@
         <v>56</v>
       </c>
       <c r="E2599">
-        <v>11.1525781772646</v>
+        <v>6.6272166103123498</v>
       </c>
       <c r="F2599">
-        <v>2.8178005607210701</v>
+        <v>0.84852813742385702</v>
       </c>
       <c r="G2599">
-        <v>11.503043075638701</v>
+        <v>6.68131723539602</v>
       </c>
     </row>
     <row r="2600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2600" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B2600" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2600" t="s">
         <v>57</v>
@@ -60840,21 +60840,21 @@
         <v>56</v>
       </c>
       <c r="E2600">
-        <v>11.550757550914099</v>
+        <v>6.90724257573165</v>
       </c>
       <c r="F2600">
-        <v>2.2605309110914602</v>
+        <v>1.0770329614269001</v>
       </c>
       <c r="G2600">
-        <v>11.7698768047928</v>
+        <v>6.9907081186386204</v>
       </c>
     </row>
     <row r="2601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2601" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B2601" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2601" t="s">
         <v>57</v>
@@ -60863,18 +60863,18 @@
         <v>56</v>
       </c>
       <c r="E2601">
-        <v>10.509043724335701</v>
+        <v>7.2027772421476399</v>
       </c>
       <c r="F2601">
-        <v>1.8814887722226701</v>
+        <v>0.71414284285428498</v>
       </c>
       <c r="G2601">
-        <v>10.676141625137801</v>
+        <v>7.2380936716790201</v>
       </c>
     </row>
     <row r="2602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2602" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2602" t="s">
         <v>8</v>
@@ -60886,21 +60886,21 @@
         <v>56</v>
       </c>
       <c r="E2602">
-        <v>11.7405280971513</v>
+        <v>7.8974679486529</v>
       </c>
       <c r="F2602">
-        <v>2.3874672772626599</v>
+        <v>2.07605394920266</v>
       </c>
       <c r="G2602">
-        <v>11.9808180021232</v>
+        <v>8.1657822650374392</v>
       </c>
     </row>
     <row r="2603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2603" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B2603" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2603" t="s">
         <v>57</v>
@@ -60909,21 +60909,21 @@
         <v>56</v>
       </c>
       <c r="E2603">
-        <v>11.919731540600999</v>
+        <v>9.3214805690941596</v>
       </c>
       <c r="F2603">
-        <v>2.4372115213907799</v>
+        <v>1.20830459735945</v>
       </c>
       <c r="G2603">
-        <v>12.166347027764701</v>
+        <v>9.3994680700558799</v>
       </c>
     </row>
     <row r="2604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2604" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B2604" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2604" t="s">
         <v>57</v>
@@ -60932,21 +60932,21 @@
         <v>56</v>
       </c>
       <c r="E2604">
-        <v>12.3498987850103</v>
+        <v>9.4244363226667307</v>
       </c>
       <c r="F2604">
-        <v>4.5155287619502502</v>
+        <v>1.80554700852677</v>
       </c>
       <c r="G2604">
-        <v>13.149524706239299</v>
+        <v>9.5958324287161201</v>
       </c>
     </row>
     <row r="2605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2605" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2605" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2605" t="s">
         <v>57</v>
@@ -60955,21 +60955,21 @@
         <v>56</v>
       </c>
       <c r="E2605">
-        <v>12.343014218577199</v>
+        <v>9.4741754258616098</v>
       </c>
       <c r="F2605">
-        <v>3.5902646142032402</v>
+        <v>2.2203603311174498</v>
       </c>
       <c r="G2605">
-        <v>12.854571171377099</v>
+        <v>9.7308786859152594</v>
       </c>
     </row>
     <row r="2606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2606" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B2606" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2606" t="s">
         <v>57</v>
@@ -60978,21 +60978,21 @@
         <v>56</v>
       </c>
       <c r="E2606">
-        <v>12.127654348636399</v>
+        <v>9.5968744912080606</v>
       </c>
       <c r="F2606">
-        <v>4.3908996800200297</v>
+        <v>2.2113344387495899</v>
       </c>
       <c r="G2606">
-        <v>12.898061869908901</v>
+        <v>9.8483501156285005</v>
       </c>
     </row>
     <row r="2607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2607" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B2607" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2607" t="s">
         <v>57</v>
@@ -61001,18 +61001,18 @@
         <v>56</v>
       </c>
       <c r="E2607">
-        <v>6.2833112289619999</v>
+        <v>9.6762596079270207</v>
       </c>
       <c r="F2607">
-        <v>0.96953597148326498</v>
+        <v>3.37194306001747</v>
       </c>
       <c r="G2607">
-        <v>6.3576725301009303</v>
+        <v>10.2469507659596</v>
       </c>
     </row>
     <row r="2608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2608" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2608" t="s">
         <v>8</v>
@@ -61024,21 +61024,21 @@
         <v>56</v>
       </c>
       <c r="E2608">
-        <v>10.3595366691758</v>
+        <v>9.7759909983591893</v>
       </c>
       <c r="F2608">
-        <v>2.22261107708928</v>
+        <v>1.8138357147216999</v>
       </c>
       <c r="G2608">
-        <v>10.595281968876501</v>
+        <v>9.9428366173843994</v>
       </c>
     </row>
     <row r="2609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2609" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B2609" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2609" t="s">
         <v>57</v>
@@ -61047,21 +61047,21 @@
         <v>56</v>
       </c>
       <c r="E2609">
-        <v>12.090492132250001</v>
+        <v>9.7882582720318503</v>
       </c>
       <c r="F2609">
-        <v>2.96816441593116</v>
+        <v>3.2155870381626999</v>
       </c>
       <c r="G2609">
-        <v>12.449497981846401</v>
+        <v>10.3029122096618</v>
       </c>
     </row>
     <row r="2610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2610" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2610" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2610" t="s">
         <v>57</v>
@@ -61070,21 +61070,21 @@
         <v>56</v>
       </c>
       <c r="E2610">
-        <v>12.456725091291</v>
+        <v>9.8254770876533009</v>
       </c>
       <c r="F2610">
-        <v>3.7148351242013402</v>
+        <v>2.7129319932501001</v>
       </c>
       <c r="G2610">
-        <v>12.998846102635399</v>
+        <v>10.193134944657601</v>
       </c>
     </row>
     <row r="2611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2611" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2611" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C2611" t="s">
         <v>57</v>
@@ -61093,21 +61093,21 @@
         <v>56</v>
       </c>
       <c r="E2611">
-        <v>11.635720862928901</v>
+        <v>9.8376826539586997</v>
       </c>
       <c r="F2611">
-        <v>3.2295510523910198</v>
+        <v>2.3937418407171598</v>
       </c>
       <c r="G2611">
-        <v>12.075595223424701</v>
+        <v>10.1247222184117</v>
       </c>
     </row>
     <row r="2612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2612" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2612" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2612" t="s">
         <v>57</v>
@@ -61116,21 +61116,21 @@
         <v>56</v>
       </c>
       <c r="E2612">
-        <v>12.2486733975561</v>
+        <v>9.8513958401842707</v>
       </c>
       <c r="F2612">
-        <v>3.2588341473600599</v>
+        <v>1.17046999107196</v>
       </c>
       <c r="G2612">
-        <v>12.674778104566499</v>
+        <v>9.9206854601887198</v>
       </c>
     </row>
     <row r="2613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2613" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B2613" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2613" t="s">
         <v>57</v>
@@ -61139,21 +61139,21 @@
         <v>56</v>
       </c>
       <c r="E2613">
-        <v>11.9050409491105</v>
+        <v>9.8569772242812892</v>
       </c>
       <c r="F2613">
-        <v>2.2090722034374499</v>
+        <v>0.94339811320566003</v>
       </c>
       <c r="G2613">
-        <v>12.108261642366299</v>
+        <v>9.9020199959402202</v>
       </c>
     </row>
     <row r="2614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2614" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2614" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2614" t="s">
         <v>57</v>
@@ -61162,21 +61162,21 @@
         <v>56</v>
       </c>
       <c r="E2614">
-        <v>12.338962679252999</v>
+        <v>9.8579916818792199</v>
       </c>
       <c r="F2614">
-        <v>3.6823905279043898</v>
+        <v>1.2</v>
       </c>
       <c r="G2614">
-        <v>12.8767231856555</v>
+        <v>9.9307602931497598</v>
       </c>
     </row>
     <row r="2615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2615" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B2615" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2615" t="s">
         <v>57</v>
@@ -61185,18 +61185,18 @@
         <v>56</v>
       </c>
       <c r="E2615">
-        <v>11.1346306629362</v>
+        <v>9.8630624047503606</v>
       </c>
       <c r="F2615">
-        <v>3.2710854467592201</v>
+        <v>2.7928480087537801</v>
       </c>
       <c r="G2615">
-        <v>11.6051712611232</v>
+        <v>10.250853622991601</v>
       </c>
     </row>
     <row r="2616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2616" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2616" t="s">
         <v>8</v>
@@ -61208,21 +61208,21 @@
         <v>56</v>
       </c>
       <c r="E2616">
-        <v>10.815266986995701</v>
+        <v>9.9010100494848494</v>
       </c>
       <c r="F2616">
-        <v>3.0967725134404001</v>
+        <v>1.9235384061671299</v>
       </c>
       <c r="G2616">
-        <v>11.2498888883401</v>
+        <v>10.0861290890013</v>
       </c>
     </row>
     <row r="2617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2617" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B2617" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C2617" t="s">
         <v>57</v>
@@ -61231,21 +61231,21 @@
         <v>56</v>
       </c>
       <c r="E2617">
-        <v>11.4760620423558</v>
+        <v>9.9060587520971204</v>
       </c>
       <c r="F2617">
-        <v>2.227105745132</v>
+        <v>2.9068883707497202</v>
       </c>
       <c r="G2617">
-        <v>11.690166808048501</v>
+        <v>10.323759005323501</v>
       </c>
     </row>
     <row r="2618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2618" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B2618" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2618" t="s">
         <v>57</v>
@@ -61254,21 +61254,21 @@
         <v>56</v>
       </c>
       <c r="E2618">
-        <v>10.777290939749101</v>
+        <v>9.9272352646645796</v>
       </c>
       <c r="F2618">
-        <v>2.8687976575562102</v>
+        <v>2.0976176963403002</v>
       </c>
       <c r="G2618">
-        <v>11.1525781772646</v>
+        <v>10.1464279428772</v>
       </c>
     </row>
     <row r="2619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2619" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B2619" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2619" t="s">
         <v>57</v>
@@ -61277,21 +61277,21 @@
         <v>56</v>
       </c>
       <c r="E2619">
-        <v>10.5517771015123</v>
+        <v>10.0742245359134</v>
       </c>
       <c r="F2619">
-        <v>2.6324893162176299</v>
+        <v>2.5651510676761302</v>
       </c>
       <c r="G2619">
-        <v>10.875201147565001</v>
+        <v>10.395672176439501</v>
       </c>
     </row>
     <row r="2620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2620" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2620" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2620" t="s">
         <v>57</v>
@@ -61300,21 +61300,21 @@
         <v>56</v>
       </c>
       <c r="E2620">
-        <v>11.0936919012563</v>
+        <v>10.262066068779699</v>
       </c>
       <c r="F2620">
-        <v>1.86010752377382</v>
+        <v>1.93907194296653</v>
       </c>
       <c r="G2620">
-        <v>11.248555462813799</v>
+        <v>10.443658362853499</v>
       </c>
     </row>
     <row r="2621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2621" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2621" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2621" t="s">
         <v>57</v>
@@ -61323,21 +61323,21 @@
         <v>56</v>
       </c>
       <c r="E2621">
-        <v>10.4814121186031</v>
+        <v>10.341179816636</v>
       </c>
       <c r="F2621">
-        <v>3.01496268633626</v>
+        <v>2.9257477676655501</v>
       </c>
       <c r="G2621">
-        <v>10.9064201276129</v>
+        <v>10.7470926301023</v>
       </c>
     </row>
     <row r="2622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2622" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B2622" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2622" t="s">
         <v>57</v>
@@ -61346,21 +61346,21 @@
         <v>56</v>
       </c>
       <c r="E2622">
-        <v>10.8995412747509</v>
+        <v>10.3595366691758</v>
       </c>
       <c r="F2622">
-        <v>2.2022715545545202</v>
+        <v>2.22261107708928</v>
       </c>
       <c r="G2622">
-        <v>11.1198021565134</v>
+        <v>10.595281968876501</v>
       </c>
     </row>
     <row r="2623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2623" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2623" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2623" t="s">
         <v>57</v>
@@ -61369,21 +61369,21 @@
         <v>56</v>
       </c>
       <c r="E2623">
-        <v>12.2257924078564</v>
+        <v>10.4163333279998</v>
       </c>
       <c r="F2623">
-        <v>2.3558437978779398</v>
+        <v>2.5573423705088798</v>
       </c>
       <c r="G2623">
-        <v>12.450702791408901</v>
+        <v>10.725670142233501</v>
       </c>
     </row>
     <row r="2624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2624" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B2624" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2624" t="s">
         <v>57</v>
@@ -61392,21 +61392,21 @@
         <v>56</v>
       </c>
       <c r="E2624">
-        <v>11.7923704148063</v>
+        <v>10.421612159354201</v>
       </c>
       <c r="F2624">
-        <v>2.24499443206436</v>
+        <v>3.8288379438153202</v>
       </c>
       <c r="G2624">
-        <v>12.004165943538</v>
+        <v>11.102702373746601</v>
       </c>
     </row>
     <row r="2625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2625" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B2625" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2625" t="s">
         <v>57</v>
@@ -61415,21 +61415,21 @@
         <v>56</v>
       </c>
       <c r="E2625">
-        <v>6.4560049566275799</v>
+        <v>10.4728219692688</v>
       </c>
       <c r="F2625">
-        <v>0.86023252670426198</v>
+        <v>2.4617067250182298</v>
       </c>
       <c r="G2625">
-        <v>6.51306379517351</v>
+        <v>10.7582526462246</v>
       </c>
     </row>
     <row r="2626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2626" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2626" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2626" t="s">
         <v>57</v>
@@ -61438,21 +61438,21 @@
         <v>56</v>
       </c>
       <c r="E2626">
-        <v>6.90724257573165</v>
+        <v>10.4814121186031</v>
       </c>
       <c r="F2626">
-        <v>1.0770329614269001</v>
+        <v>3.01496268633626</v>
       </c>
       <c r="G2626">
-        <v>6.9907081186386204</v>
+        <v>10.9064201276129</v>
       </c>
     </row>
     <row r="2627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2627" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2627" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C2627" t="s">
         <v>57</v>
@@ -61461,21 +61461,21 @@
         <v>56</v>
       </c>
       <c r="E2627">
-        <v>6.6272166103123498</v>
+        <v>10.4895185780854</v>
       </c>
       <c r="F2627">
-        <v>0.84852813742385702</v>
+        <v>3.1733263305244801</v>
       </c>
       <c r="G2627">
-        <v>6.68131723539602</v>
+        <v>10.9590145542379</v>
       </c>
     </row>
     <row r="2628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2628" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2628" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2628" t="s">
         <v>57</v>
@@ -61484,21 +61484,21 @@
         <v>56</v>
       </c>
       <c r="E2628">
-        <v>11.2512221558371</v>
+        <v>10.509043724335701</v>
       </c>
       <c r="F2628">
-        <v>2.7495454169735001</v>
+        <v>1.8814887722226701</v>
       </c>
       <c r="G2628">
-        <v>11.582314103839501</v>
+        <v>10.676141625137801</v>
       </c>
     </row>
     <row r="2629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2629" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2629" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2629" t="s">
         <v>57</v>
@@ -61507,18 +61507,18 @@
         <v>56</v>
       </c>
       <c r="E2629">
-        <v>9.9272352646645796</v>
+        <v>10.5517771015123</v>
       </c>
       <c r="F2629">
-        <v>2.0976176963403002</v>
+        <v>2.6324893162176299</v>
       </c>
       <c r="G2629">
-        <v>10.1464279428772</v>
+        <v>10.875201147565001</v>
       </c>
     </row>
     <row r="2630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2630" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B2630" t="s">
         <v>15</v>
@@ -61530,13 +61530,13 @@
         <v>56</v>
       </c>
       <c r="E2630">
-        <v>10.4895185780854</v>
+        <v>10.556988206870299</v>
       </c>
       <c r="F2630">
-        <v>3.1733263305244801</v>
+        <v>2.7166155414412199</v>
       </c>
       <c r="G2630">
-        <v>10.9590145542379</v>
+        <v>10.900917392586701</v>
       </c>
     </row>
     <row r="2631" spans="1:7" x14ac:dyDescent="0.2">
@@ -61564,7 +61564,7 @@
     </row>
     <row r="2632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2632" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2632" t="s">
         <v>8</v>
@@ -61576,18 +61576,18 @@
         <v>56</v>
       </c>
       <c r="E2632">
-        <v>12.0029163122967</v>
+        <v>10.6240293674292</v>
       </c>
       <c r="F2632">
-        <v>2.6925824035672501</v>
+        <v>0.84261497731763502</v>
       </c>
       <c r="G2632">
-        <v>12.3012194517454</v>
+        <v>10.6573918009989</v>
       </c>
     </row>
     <row r="2633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2633" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2633" t="s">
         <v>14</v>
@@ -61599,13 +61599,13 @@
         <v>56</v>
       </c>
       <c r="E2633">
-        <v>11.974556359214301</v>
+        <v>10.647534925981599</v>
       </c>
       <c r="F2633">
-        <v>2.9274562336608798</v>
+        <v>2.7202941017470801</v>
       </c>
       <c r="G2633">
-        <v>12.3272056849879</v>
+        <v>10.989540481749</v>
       </c>
     </row>
     <row r="2634" spans="1:7" x14ac:dyDescent="0.2">
@@ -61613,7 +61613,7 @@
         <v>33</v>
       </c>
       <c r="B2634" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2634" t="s">
         <v>57</v>
@@ -61622,13 +61622,13 @@
         <v>56</v>
       </c>
       <c r="E2634">
-        <v>11.053053876644199</v>
+        <v>10.699532700076199</v>
       </c>
       <c r="F2634">
-        <v>2.0663978319771799</v>
+        <v>2.2847319317591701</v>
       </c>
       <c r="G2634">
-        <v>11.2445542374964</v>
+        <v>10.9407495172862</v>
       </c>
     </row>
     <row r="2635" spans="1:7" x14ac:dyDescent="0.2">
@@ -61636,7 +61636,7 @@
         <v>33</v>
       </c>
       <c r="B2635" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2635" t="s">
         <v>57</v>
@@ -61645,21 +61645,21 @@
         <v>56</v>
       </c>
       <c r="E2635">
-        <v>10.699532700076199</v>
+        <v>10.7107422711967</v>
       </c>
       <c r="F2635">
-        <v>2.2847319317591701</v>
+        <v>3.5552777669262299</v>
       </c>
       <c r="G2635">
-        <v>10.9407495172862</v>
+        <v>11.285388783732699</v>
       </c>
     </row>
     <row r="2636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2636" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2636" t="s">
         <v>57</v>
@@ -61668,21 +61668,21 @@
         <v>56</v>
       </c>
       <c r="E2636">
-        <v>10.7107422711967</v>
+        <v>10.770329614269</v>
       </c>
       <c r="F2636">
-        <v>3.5552777669262299</v>
+        <v>2.7367864366807999</v>
       </c>
       <c r="G2636">
-        <v>11.285388783732699</v>
+        <v>11.1126054550676</v>
       </c>
     </row>
     <row r="2637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2637" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2637" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2637" t="s">
         <v>57</v>
@@ -61691,21 +61691,21 @@
         <v>56</v>
       </c>
       <c r="E2637">
-        <v>9.7759909983591893</v>
+        <v>10.777290939749101</v>
       </c>
       <c r="F2637">
-        <v>1.8138357147216999</v>
+        <v>2.8687976575562102</v>
       </c>
       <c r="G2637">
-        <v>9.9428366173843994</v>
+        <v>11.1525781772646</v>
       </c>
     </row>
     <row r="2638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2638" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2638" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2638" t="s">
         <v>57</v>
@@ -61714,21 +61714,21 @@
         <v>56</v>
       </c>
       <c r="E2638">
-        <v>9.8579916818792199</v>
+        <v>10.815266986995701</v>
       </c>
       <c r="F2638">
-        <v>1.2</v>
+        <v>3.0967725134404001</v>
       </c>
       <c r="G2638">
-        <v>9.9307602931497598</v>
+        <v>11.2498888883401</v>
       </c>
     </row>
     <row r="2639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2639" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B2639" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2639" t="s">
         <v>57</v>
@@ -61737,18 +61737,18 @@
         <v>56</v>
       </c>
       <c r="E2639">
-        <v>10.262066068779699</v>
+        <v>10.8351280564652</v>
       </c>
       <c r="F2639">
-        <v>1.93907194296653</v>
+        <v>1.4560219778561001</v>
       </c>
       <c r="G2639">
-        <v>10.443658362853499</v>
+        <v>10.9325202949731</v>
       </c>
     </row>
     <row r="2640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2640" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B2640" t="s">
         <v>18</v>
@@ -61760,21 +61760,21 @@
         <v>56</v>
       </c>
       <c r="E2640">
-        <v>10.4163333279998</v>
+        <v>10.880716888146599</v>
       </c>
       <c r="F2640">
-        <v>2.5573423705088798</v>
+        <v>3.5916569992135901</v>
       </c>
       <c r="G2640">
-        <v>10.725670142233501</v>
+        <v>11.4581848475227</v>
       </c>
     </row>
     <row r="2641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2641" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B2641" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2641" t="s">
         <v>57</v>
@@ -61783,21 +61783,21 @@
         <v>56</v>
       </c>
       <c r="E2641">
-        <v>6.4007812023220998</v>
+        <v>10.8995412747509</v>
       </c>
       <c r="F2641">
-        <v>1.12249721603218</v>
+        <v>2.2022715545545202</v>
       </c>
       <c r="G2641">
-        <v>6.49846135635197</v>
+        <v>11.1198021565134</v>
       </c>
     </row>
     <row r="2642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2642" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2642" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C2642" t="s">
         <v>57</v>
@@ -61806,21 +61806,21 @@
         <v>56</v>
       </c>
       <c r="E2642">
-        <v>6.0761830123853198</v>
+        <v>10.9453186340097</v>
       </c>
       <c r="F2642">
-        <v>0.964365076099295</v>
+        <v>3.0413812651490999</v>
       </c>
       <c r="G2642">
-        <v>6.1522353661088101</v>
+        <v>11.360017605620101</v>
       </c>
     </row>
     <row r="2643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2643" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2643" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C2643" t="s">
         <v>57</v>
@@ -61829,21 +61829,21 @@
         <v>56</v>
       </c>
       <c r="E2643">
-        <v>10.9453186340097</v>
+        <v>10.9558203709261</v>
       </c>
       <c r="F2643">
-        <v>3.0413812651490999</v>
+        <v>1.49666295470957</v>
       </c>
       <c r="G2643">
-        <v>11.360017605620101</v>
+        <v>11.057576588023201</v>
       </c>
     </row>
     <row r="2644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2644" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B2644" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C2644" t="s">
         <v>57</v>
@@ -61852,21 +61852,21 @@
         <v>56</v>
       </c>
       <c r="E2644">
-        <v>11.0421918114113</v>
+        <v>11.001818031579999</v>
       </c>
       <c r="F2644">
-        <v>2.6570660511172801</v>
+        <v>2.5709920264364801</v>
       </c>
       <c r="G2644">
-        <v>11.3573764576155</v>
+        <v>11.298229949863799</v>
       </c>
     </row>
     <row r="2645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2645" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2645" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C2645" t="s">
         <v>57</v>
@@ -61875,21 +61875,21 @@
         <v>56</v>
       </c>
       <c r="E2645">
-        <v>9.8376826539586997</v>
+        <v>11.021342930877299</v>
       </c>
       <c r="F2645">
-        <v>2.3937418407171598</v>
+        <v>2.2472205054244201</v>
       </c>
       <c r="G2645">
-        <v>10.1247222184117</v>
+        <v>11.248110952511</v>
       </c>
     </row>
     <row r="2646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2646" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2646" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2646" t="s">
         <v>57</v>
@@ -61898,21 +61898,21 @@
         <v>56</v>
       </c>
       <c r="E2646">
-        <v>9.9060587520971204</v>
+        <v>11.0421918114113</v>
       </c>
       <c r="F2646">
-        <v>2.9068883707497202</v>
+        <v>2.6570660511172801</v>
       </c>
       <c r="G2646">
-        <v>10.323759005323501</v>
+        <v>11.3573764576155</v>
       </c>
     </row>
     <row r="2647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2647" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2647" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C2647" t="s">
         <v>57</v>
@@ -61921,21 +61921,21 @@
         <v>56</v>
       </c>
       <c r="E2647">
-        <v>9.4741754258616098</v>
+        <v>11.053053876644199</v>
       </c>
       <c r="F2647">
-        <v>2.2203603311174498</v>
+        <v>2.0663978319771799</v>
       </c>
       <c r="G2647">
-        <v>9.7308786859152594</v>
+        <v>11.2445542374964</v>
       </c>
     </row>
     <row r="2648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2648" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2648" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2648" t="s">
         <v>57</v>
@@ -61944,21 +61944,21 @@
         <v>56</v>
       </c>
       <c r="E2648">
-        <v>7.2027772421476399</v>
+        <v>11.0833208019979</v>
       </c>
       <c r="F2648">
-        <v>0.71414284285428498</v>
+        <v>3.5114099732158799</v>
       </c>
       <c r="G2648">
-        <v>7.2380936716790201</v>
+        <v>11.6262633722103</v>
       </c>
     </row>
     <row r="2649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2649" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B2649" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2649" t="s">
         <v>57</v>
@@ -61967,21 +61967,21 @@
         <v>56</v>
       </c>
       <c r="E2649">
-        <v>9.8513958401842707</v>
+        <v>11.0936919012563</v>
       </c>
       <c r="F2649">
-        <v>1.17046999107196</v>
+        <v>1.86010752377382</v>
       </c>
       <c r="G2649">
-        <v>9.9206854601887198</v>
+        <v>11.248555462813799</v>
       </c>
     </row>
     <row r="2650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2650" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B2650" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2650" t="s">
         <v>57</v>
@@ -61990,18 +61990,18 @@
         <v>56</v>
       </c>
       <c r="E2650">
-        <v>12.1684017027709</v>
+        <v>11.1346306629362</v>
       </c>
       <c r="F2650">
-        <v>2.59422435421456</v>
+        <v>3.2710854467592201</v>
       </c>
       <c r="G2650">
-        <v>12.4418648119966</v>
+        <v>11.6051712611232</v>
       </c>
     </row>
     <row r="2651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2651" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B2651" t="s">
         <v>15</v>
@@ -62013,21 +62013,21 @@
         <v>56</v>
       </c>
       <c r="E2651">
-        <v>9.5968744912080606</v>
+        <v>11.1525781772646</v>
       </c>
       <c r="F2651">
-        <v>2.2113344387495899</v>
+        <v>2.8178005607210701</v>
       </c>
       <c r="G2651">
-        <v>9.8483501156285005</v>
+        <v>11.503043075638701</v>
       </c>
     </row>
     <row r="2652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2652" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2652" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2652" t="s">
         <v>57</v>
@@ -62036,21 +62036,21 @@
         <v>56</v>
       </c>
       <c r="E2652">
-        <v>9.4244363226667307</v>
+        <v>11.180787092150499</v>
       </c>
       <c r="F2652">
-        <v>1.80554700852677</v>
+        <v>2.0493901531919101</v>
       </c>
       <c r="G2652">
-        <v>9.5958324287161201</v>
+        <v>11.3670576667843</v>
       </c>
     </row>
     <row r="2653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2653" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B2653" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2653" t="s">
         <v>57</v>
@@ -62059,13 +62059,13 @@
         <v>56</v>
       </c>
       <c r="E2653">
-        <v>10.9558203709261</v>
+        <v>11.2512221558371</v>
       </c>
       <c r="F2653">
-        <v>1.49666295470957</v>
+        <v>2.7495454169735001</v>
       </c>
       <c r="G2653">
-        <v>11.057576588023201</v>
+        <v>11.582314103839501</v>
       </c>
     </row>
     <row r="2654" spans="1:7" x14ac:dyDescent="0.2">
@@ -62073,7 +62073,7 @@
         <v>44</v>
       </c>
       <c r="B2654" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2654" t="s">
         <v>57</v>
@@ -62082,13 +62082,13 @@
         <v>56</v>
       </c>
       <c r="E2654">
-        <v>11.9180535323516</v>
+        <v>11.2556652402245</v>
       </c>
       <c r="F2654">
-        <v>2.8407745422683499</v>
+        <v>2.0099751242241699</v>
       </c>
       <c r="G2654">
-        <v>12.251938622112</v>
+        <v>11.433722053644599</v>
       </c>
     </row>
     <row r="2655" spans="1:7" x14ac:dyDescent="0.2">
@@ -62096,7 +62096,7 @@
         <v>44</v>
       </c>
       <c r="B2655" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2655" t="s">
         <v>57</v>
@@ -62105,21 +62105,21 @@
         <v>56</v>
       </c>
       <c r="E2655">
-        <v>11.686316785026801</v>
+        <v>11.2672090599225</v>
       </c>
       <c r="F2655">
-        <v>1.7233687939614</v>
+        <v>2.9698484809834902</v>
       </c>
       <c r="G2655">
-        <v>11.812705024675701</v>
+        <v>11.6520384482716</v>
       </c>
     </row>
     <row r="2656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2656" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2656" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2656" t="s">
         <v>57</v>
@@ -62128,13 +62128,13 @@
         <v>56</v>
       </c>
       <c r="E2656">
-        <v>11.2556652402245</v>
+        <v>11.309730323928999</v>
       </c>
       <c r="F2656">
-        <v>2.0099751242241699</v>
+        <v>2.4331050121192801</v>
       </c>
       <c r="G2656">
-        <v>11.433722053644599</v>
+        <v>11.5684916907952</v>
       </c>
     </row>
     <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
@@ -62142,7 +62142,7 @@
         <v>44</v>
       </c>
       <c r="B2657" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2657" t="s">
         <v>57</v>
@@ -62151,21 +62151,21 @@
         <v>56</v>
       </c>
       <c r="E2657">
-        <v>10.556988206870299</v>
+        <v>11.4638562447371</v>
       </c>
       <c r="F2657">
-        <v>2.7166155414412199</v>
+        <v>1.58113883008418</v>
       </c>
       <c r="G2657">
-        <v>10.900917392586701</v>
+        <v>11.5723809131915</v>
       </c>
     </row>
     <row r="2658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2658" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B2658" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2658" t="s">
         <v>57</v>
@@ -62174,21 +62174,21 @@
         <v>56</v>
       </c>
       <c r="E2658">
-        <v>12.1206435472709</v>
+        <v>11.4760620423558</v>
       </c>
       <c r="F2658">
-        <v>2.9563490998188899</v>
+        <v>2.227105745132</v>
       </c>
       <c r="G2658">
-        <v>12.4759769156567</v>
+        <v>11.690166808048501</v>
       </c>
     </row>
     <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2659" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B2659" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2659" t="s">
         <v>57</v>
@@ -62197,21 +62197,21 @@
         <v>56</v>
       </c>
       <c r="E2659">
-        <v>11.2672090599225</v>
+        <v>11.550757550914099</v>
       </c>
       <c r="F2659">
-        <v>2.9698484809834902</v>
+        <v>2.2605309110914602</v>
       </c>
       <c r="G2659">
-        <v>11.6520384482716</v>
+        <v>11.7698768047928</v>
       </c>
     </row>
     <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2660" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2660" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2660" t="s">
         <v>57</v>
@@ -62220,13 +62220,13 @@
         <v>56</v>
       </c>
       <c r="E2660">
-        <v>12.319496742967999</v>
+        <v>11.6176589724436</v>
       </c>
       <c r="F2660">
-        <v>4.5934736311423396</v>
+        <v>3.1416556144809999</v>
       </c>
       <c r="G2660">
-        <v>13.148003650744799</v>
+        <v>12.0349491066643</v>
       </c>
     </row>
     <row r="2661" spans="1:7" x14ac:dyDescent="0.2">
@@ -62234,7 +62234,7 @@
         <v>44</v>
       </c>
       <c r="B2661" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2661" t="s">
         <v>57</v>
@@ -62243,21 +62243,21 @@
         <v>56</v>
       </c>
       <c r="E2661">
-        <v>12.479583326377499</v>
+        <v>11.6340018910089</v>
       </c>
       <c r="F2661">
-        <v>4.4204072210600698</v>
+        <v>2.03469899493758</v>
       </c>
       <c r="G2661">
-        <v>13.239335330748199</v>
+        <v>11.8105884696741</v>
       </c>
     </row>
     <row r="2662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2662" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2662" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2662" t="s">
         <v>57</v>
@@ -62266,13 +62266,13 @@
         <v>56</v>
       </c>
       <c r="E2662">
-        <v>11.4638562447371</v>
+        <v>11.635720862928901</v>
       </c>
       <c r="F2662">
-        <v>1.58113883008418</v>
+        <v>3.2295510523910198</v>
       </c>
       <c r="G2662">
-        <v>11.5723809131915</v>
+        <v>12.075595223424701</v>
       </c>
     </row>
     <row r="2663" spans="1:7" x14ac:dyDescent="0.2">
@@ -62280,7 +62280,7 @@
         <v>44</v>
       </c>
       <c r="B2663" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2663" t="s">
         <v>57</v>
@@ -62289,18 +62289,18 @@
         <v>56</v>
       </c>
       <c r="E2663">
-        <v>11.6340018910089</v>
+        <v>11.686316785026801</v>
       </c>
       <c r="F2663">
-        <v>2.03469899493758</v>
+        <v>1.7233687939614</v>
       </c>
       <c r="G2663">
-        <v>11.8105884696741</v>
+        <v>11.812705024675701</v>
       </c>
     </row>
     <row r="2664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2664" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B2664" t="s">
         <v>8</v>
@@ -62312,18 +62312,18 @@
         <v>56</v>
       </c>
       <c r="E2664">
-        <v>11.180787092150499</v>
+        <v>11.7405280971513</v>
       </c>
       <c r="F2664">
-        <v>2.0493901531919101</v>
+        <v>2.3874672772626599</v>
       </c>
       <c r="G2664">
-        <v>11.3670576667843</v>
+        <v>11.9808180021232</v>
       </c>
     </row>
     <row r="2665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2665" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2665" t="s">
         <v>14</v>
@@ -62335,21 +62335,21 @@
         <v>56</v>
       </c>
       <c r="E2665">
-        <v>11.021342930877299</v>
+        <v>11.788129622633001</v>
       </c>
       <c r="F2665">
-        <v>2.2472205054244201</v>
+        <v>1.20830459735945</v>
       </c>
       <c r="G2665">
-        <v>11.248110952511</v>
+        <v>11.8498945142984</v>
       </c>
     </row>
     <row r="2666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2666" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B2666" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2666" t="s">
         <v>57</v>
@@ -62358,21 +62358,21 @@
         <v>56</v>
       </c>
       <c r="E2666">
-        <v>13.1749762808135</v>
+        <v>11.7923704148063</v>
       </c>
       <c r="F2666">
-        <v>5.9439044406854302</v>
+        <v>2.24499443206436</v>
       </c>
       <c r="G2666">
-        <v>14.4537192445404</v>
+        <v>12.004165943538</v>
       </c>
     </row>
     <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2667" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2667" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2667" t="s">
         <v>57</v>
@@ -62381,21 +62381,21 @@
         <v>56</v>
       </c>
       <c r="E2667">
-        <v>7.8974679486529</v>
+        <v>11.8207444774007</v>
       </c>
       <c r="F2667">
-        <v>2.07605394920266</v>
+        <v>5.1332251070842396</v>
       </c>
       <c r="G2667">
-        <v>8.1657822650374392</v>
+        <v>12.887202954869601</v>
       </c>
     </row>
     <row r="2668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2668" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2668" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2668" t="s">
         <v>57</v>
@@ -62404,18 +62404,18 @@
         <v>56</v>
       </c>
       <c r="E2668">
-        <v>10.0742245359134</v>
+        <v>11.8680242669114</v>
       </c>
       <c r="F2668">
-        <v>2.5651510676761302</v>
+        <v>1.4035668847618199</v>
       </c>
       <c r="G2668">
-        <v>10.395672176439501</v>
+        <v>11.9507321951418</v>
       </c>
     </row>
     <row r="2669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2669" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2669" t="s">
         <v>15</v>
@@ -62427,21 +62427,21 @@
         <v>56</v>
       </c>
       <c r="E2669">
-        <v>11.001818031579999</v>
+        <v>11.874342087037901</v>
       </c>
       <c r="F2669">
-        <v>2.5709920264364801</v>
+        <v>3.0413812651490999</v>
       </c>
       <c r="G2669">
-        <v>11.298229949863799</v>
+        <v>12.2576506721312</v>
       </c>
     </row>
     <row r="2670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2670" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2670" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2670" t="s">
         <v>57</v>
@@ -62450,21 +62450,21 @@
         <v>56</v>
       </c>
       <c r="E2670">
-        <v>11.0833208019979</v>
+        <v>11.9050409491105</v>
       </c>
       <c r="F2670">
-        <v>3.5114099732158799</v>
+        <v>2.2090722034374499</v>
       </c>
       <c r="G2670">
-        <v>11.6262633722103</v>
+        <v>12.108261642366299</v>
       </c>
     </row>
     <row r="2671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2671" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2671" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2671" t="s">
         <v>57</v>
@@ -62473,21 +62473,21 @@
         <v>56</v>
       </c>
       <c r="E2671">
-        <v>10.880716888146599</v>
+        <v>11.9180535323516</v>
       </c>
       <c r="F2671">
-        <v>3.5916569992135901</v>
+        <v>2.8407745422683499</v>
       </c>
       <c r="G2671">
-        <v>11.4581848475227</v>
+        <v>12.251938622112</v>
       </c>
     </row>
     <row r="2672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2672" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B2672" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2672" t="s">
         <v>57</v>
@@ -62496,21 +62496,21 @@
         <v>56</v>
       </c>
       <c r="E2672">
-        <v>11.309730323928999</v>
+        <v>11.919731540600999</v>
       </c>
       <c r="F2672">
-        <v>2.4331050121192801</v>
+        <v>2.4372115213907799</v>
       </c>
       <c r="G2672">
-        <v>11.5684916907952</v>
+        <v>12.166347027764701</v>
       </c>
     </row>
     <row r="2673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2673" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2673" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2673" t="s">
         <v>57</v>
@@ -62519,21 +62519,21 @@
         <v>56</v>
       </c>
       <c r="E2673">
-        <v>12.279657975692899</v>
+        <v>11.974556359214301</v>
       </c>
       <c r="F2673">
-        <v>1.63095064303</v>
+        <v>2.9274562336608798</v>
       </c>
       <c r="G2673">
-        <v>12.3874936932375</v>
+        <v>12.3272056849879</v>
       </c>
     </row>
     <row r="2674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2674" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2674" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2674" t="s">
         <v>57</v>
@@ -62542,21 +62542,21 @@
         <v>56</v>
       </c>
       <c r="E2674">
-        <v>11.788129622633001</v>
+        <v>12.0029163122967</v>
       </c>
       <c r="F2674">
-        <v>1.20830459735945</v>
+        <v>2.6925824035672501</v>
       </c>
       <c r="G2674">
-        <v>11.8498945142984</v>
+        <v>12.3012194517454</v>
       </c>
     </row>
     <row r="2675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2675" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2675" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2675" t="s">
         <v>57</v>
@@ -62565,13 +62565,13 @@
         <v>56</v>
       </c>
       <c r="E2675">
-        <v>12.561050911448399</v>
+        <v>12.078907235342101</v>
       </c>
       <c r="F2675">
-        <v>2.0784609690826499</v>
+        <v>4.2520583250938602</v>
       </c>
       <c r="G2675">
-        <v>12.7318498263213</v>
+        <v>12.8054675822478</v>
       </c>
     </row>
     <row r="2676" spans="1:7" x14ac:dyDescent="0.2">
@@ -62579,7 +62579,7 @@
         <v>47</v>
       </c>
       <c r="B2676" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2676" t="s">
         <v>57</v>
@@ -62588,21 +62588,21 @@
         <v>56</v>
       </c>
       <c r="E2676">
-        <v>12.3899152539474</v>
+        <v>12.0834597694534</v>
       </c>
       <c r="F2676">
-        <v>3.77094152699296</v>
+        <v>2.3558437978779398</v>
       </c>
       <c r="G2676">
-        <v>12.9510617325376</v>
+        <v>12.3109707172099</v>
       </c>
     </row>
     <row r="2677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2677" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2677" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2677" t="s">
         <v>57</v>
@@ -62611,21 +62611,21 @@
         <v>56</v>
       </c>
       <c r="E2677">
-        <v>12.254794979925199</v>
+        <v>12.090492132250001</v>
       </c>
       <c r="F2677">
-        <v>3.82491829978105</v>
+        <v>2.96816441593116</v>
       </c>
       <c r="G2677">
-        <v>12.837834708392201</v>
+        <v>12.449497981846401</v>
       </c>
     </row>
     <row r="2678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2678" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2678" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2678" t="s">
         <v>57</v>
@@ -62634,21 +62634,21 @@
         <v>56</v>
       </c>
       <c r="E2678">
-        <v>12.0834597694534</v>
+        <v>12.1206435472709</v>
       </c>
       <c r="F2678">
-        <v>2.3558437978779398</v>
+        <v>2.9563490998188899</v>
       </c>
       <c r="G2678">
-        <v>12.3109707172099</v>
+        <v>12.4759769156567</v>
       </c>
     </row>
     <row r="2679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2679" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B2679" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2679" t="s">
         <v>57</v>
@@ -62657,18 +62657,18 @@
         <v>56</v>
       </c>
       <c r="E2679">
-        <v>13.829678231976301</v>
+        <v>12.127654348636399</v>
       </c>
       <c r="F2679">
-        <v>5.0576674465607097</v>
+        <v>4.3908996800200297</v>
       </c>
       <c r="G2679">
-        <v>14.725488107359901</v>
+        <v>12.898061869908901</v>
       </c>
     </row>
     <row r="2680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2680" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2680" t="s">
         <v>24</v>
@@ -62680,21 +62680,21 @@
         <v>56</v>
       </c>
       <c r="E2680">
-        <v>12.457126474432201</v>
+        <v>12.1626477380544</v>
       </c>
       <c r="F2680">
-        <v>4.8672374094551802</v>
+        <v>3.2202484376209202</v>
       </c>
       <c r="G2680">
-        <v>13.374228949737599</v>
+        <v>12.581732790041199</v>
       </c>
     </row>
     <row r="2681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2681" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2681" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C2681" t="s">
         <v>57</v>
@@ -62703,21 +62703,21 @@
         <v>56</v>
       </c>
       <c r="E2681">
-        <v>12.242957159117999</v>
+        <v>12.1684017027709</v>
       </c>
       <c r="F2681">
-        <v>4.2178193417926204</v>
+        <v>2.59422435421456</v>
       </c>
       <c r="G2681">
-        <v>12.9491312449909</v>
+        <v>12.4418648119966</v>
       </c>
     </row>
     <row r="2682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2682" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B2682" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2682" t="s">
         <v>57</v>
@@ -62726,21 +62726,21 @@
         <v>56</v>
       </c>
       <c r="E2682">
-        <v>11.8680242669114</v>
+        <v>12.2257924078564</v>
       </c>
       <c r="F2682">
-        <v>1.4035668847618199</v>
+        <v>2.3558437978779398</v>
       </c>
       <c r="G2682">
-        <v>11.9507321951418</v>
+        <v>12.450702791408901</v>
       </c>
     </row>
     <row r="2683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2683" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2683" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2683" t="s">
         <v>57</v>
@@ -62749,21 +62749,21 @@
         <v>56</v>
       </c>
       <c r="E2683">
-        <v>13.0245921241319</v>
+        <v>12.242957159117999</v>
       </c>
       <c r="F2683">
-        <v>4.3829214001622203</v>
+        <v>4.2178193417926204</v>
       </c>
       <c r="G2683">
-        <v>13.7422705547518</v>
+        <v>12.9491312449909</v>
       </c>
     </row>
     <row r="2684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2684" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2684" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2684" t="s">
         <v>57</v>
@@ -62772,21 +62772,21 @@
         <v>56</v>
       </c>
       <c r="E2684">
-        <v>12.4871934396805</v>
+        <v>12.2486733975561</v>
       </c>
       <c r="F2684">
-        <v>4.9578221024962099</v>
+        <v>3.2588341473600599</v>
       </c>
       <c r="G2684">
-        <v>13.4354009988537</v>
+        <v>12.674778104566499</v>
       </c>
     </row>
     <row r="2685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2685" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2685" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2685" t="s">
         <v>57</v>
@@ -62795,21 +62795,21 @@
         <v>56</v>
       </c>
       <c r="E2685">
-        <v>11.874342087037901</v>
+        <v>12.254794979925199</v>
       </c>
       <c r="F2685">
-        <v>3.0413812651490999</v>
+        <v>3.82491829978105</v>
       </c>
       <c r="G2685">
-        <v>12.2576506721312</v>
+        <v>12.837834708392201</v>
       </c>
     </row>
     <row r="2686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2686" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2686" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2686" t="s">
         <v>57</v>
@@ -62818,21 +62818,21 @@
         <v>56</v>
       </c>
       <c r="E2686">
-        <v>13.3996268604763</v>
+        <v>12.279657975692899</v>
       </c>
       <c r="F2686">
-        <v>4.2673176586703701</v>
+        <v>1.63095064303</v>
       </c>
       <c r="G2686">
-        <v>14.062716664997501</v>
+        <v>12.3874936932375</v>
       </c>
     </row>
     <row r="2687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2687" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2687" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2687" t="s">
         <v>57</v>
@@ -62841,21 +62841,21 @@
         <v>56</v>
       </c>
       <c r="E2687">
-        <v>11.8207444774007</v>
+        <v>12.319496742967999</v>
       </c>
       <c r="F2687">
-        <v>5.1332251070842396</v>
+        <v>4.5934736311423396</v>
       </c>
       <c r="G2687">
-        <v>12.887202954869601</v>
+        <v>13.148003650744799</v>
       </c>
     </row>
     <row r="2688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2688" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2688" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2688" t="s">
         <v>57</v>
@@ -62864,21 +62864,21 @@
         <v>56</v>
       </c>
       <c r="E2688">
-        <v>12.899999999999901</v>
+        <v>12.338962679252999</v>
       </c>
       <c r="F2688">
-        <v>4.7360320944858403</v>
+        <v>3.6823905279043898</v>
       </c>
       <c r="G2688">
-        <v>13.741906709041499</v>
+        <v>12.8767231856555</v>
       </c>
     </row>
     <row r="2689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2689" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B2689" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2689" t="s">
         <v>57</v>
@@ -62887,21 +62887,21 @@
         <v>56</v>
       </c>
       <c r="E2689">
-        <v>12.078907235342101</v>
+        <v>12.343014218577199</v>
       </c>
       <c r="F2689">
-        <v>4.2520583250938602</v>
+        <v>3.5902646142032402</v>
       </c>
       <c r="G2689">
-        <v>12.8054675822478</v>
+        <v>12.854571171377099</v>
       </c>
     </row>
     <row r="2690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2690" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B2690" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2690" t="s">
         <v>57</v>
@@ -62910,21 +62910,21 @@
         <v>56</v>
       </c>
       <c r="E2690">
-        <v>12.1626477380544</v>
+        <v>12.3498987850103</v>
       </c>
       <c r="F2690">
-        <v>3.2202484376209202</v>
+        <v>4.5155287619502502</v>
       </c>
       <c r="G2690">
-        <v>12.581732790041199</v>
+        <v>13.149524706239299</v>
       </c>
     </row>
     <row r="2691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2691" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2691" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2691" t="s">
         <v>57</v>
@@ -62933,21 +62933,21 @@
         <v>56</v>
       </c>
       <c r="E2691">
-        <v>9.8254770876533009</v>
+        <v>12.3899152539474</v>
       </c>
       <c r="F2691">
-        <v>2.7129319932501001</v>
+        <v>3.77094152699296</v>
       </c>
       <c r="G2691">
-        <v>10.193134944657601</v>
+        <v>12.9510617325376</v>
       </c>
     </row>
     <row r="2692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2692" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2692" t="s">
         <v>57</v>
@@ -62956,21 +62956,21 @@
         <v>56</v>
       </c>
       <c r="E2692">
-        <v>10.4728219692688</v>
+        <v>12.456725091291</v>
       </c>
       <c r="F2692">
-        <v>2.4617067250182298</v>
+        <v>3.7148351242013402</v>
       </c>
       <c r="G2692">
-        <v>10.7582526462246</v>
+        <v>12.998846102635399</v>
       </c>
     </row>
     <row r="2693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2693" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2693" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2693" t="s">
         <v>57</v>
@@ -62979,21 +62979,21 @@
         <v>56</v>
       </c>
       <c r="E2693">
-        <v>10.770329614269</v>
+        <v>12.457126474432201</v>
       </c>
       <c r="F2693">
-        <v>2.7367864366807999</v>
+        <v>4.8672374094551802</v>
       </c>
       <c r="G2693">
-        <v>11.1126054550676</v>
+        <v>13.374228949737599</v>
       </c>
     </row>
     <row r="2694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2694" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2694" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2694" t="s">
         <v>57</v>
@@ -63002,21 +63002,21 @@
         <v>56</v>
       </c>
       <c r="E2694">
-        <v>11.6176589724436</v>
+        <v>12.479583326377499</v>
       </c>
       <c r="F2694">
-        <v>3.1416556144809999</v>
+        <v>4.4204072210600698</v>
       </c>
       <c r="G2694">
-        <v>12.0349491066643</v>
+        <v>13.239335330748199</v>
       </c>
     </row>
     <row r="2695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2695" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2695" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2695" t="s">
         <v>57</v>
@@ -63025,21 +63025,21 @@
         <v>56</v>
       </c>
       <c r="E2695">
-        <v>9.3214805690941596</v>
+        <v>12.4871934396805</v>
       </c>
       <c r="F2695">
-        <v>1.20830459735945</v>
+        <v>4.9578221024962099</v>
       </c>
       <c r="G2695">
-        <v>9.3994680700558799</v>
+        <v>13.4354009988537</v>
       </c>
     </row>
     <row r="2696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2696" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2696" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2696" t="s">
         <v>57</v>
@@ -63048,21 +63048,21 @@
         <v>56</v>
       </c>
       <c r="E2696">
-        <v>9.7882582720318503</v>
+        <v>12.561050911448399</v>
       </c>
       <c r="F2696">
-        <v>3.2155870381626999</v>
+        <v>2.0784609690826499</v>
       </c>
       <c r="G2696">
-        <v>10.3029122096618</v>
+        <v>12.7318498263213</v>
       </c>
     </row>
     <row r="2697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2697" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2697" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2697" t="s">
         <v>57</v>
@@ -63071,21 +63071,21 @@
         <v>56</v>
       </c>
       <c r="E2697">
-        <v>9.8569772242812892</v>
+        <v>12.899999999999901</v>
       </c>
       <c r="F2697">
-        <v>0.94339811320566003</v>
+        <v>4.7360320944858403</v>
       </c>
       <c r="G2697">
-        <v>9.9020199959402202</v>
+        <v>13.741906709041499</v>
       </c>
     </row>
     <row r="2698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2698" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2698" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2698" t="s">
         <v>57</v>
@@ -63094,21 +63094,21 @@
         <v>56</v>
       </c>
       <c r="E2698">
-        <v>9.8630624047503606</v>
+        <v>13.0245921241319</v>
       </c>
       <c r="F2698">
-        <v>2.7928480087537801</v>
+        <v>4.3829214001622203</v>
       </c>
       <c r="G2698">
-        <v>10.250853622991601</v>
+        <v>13.7422705547518</v>
       </c>
     </row>
     <row r="2699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2699" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2699" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2699" t="s">
         <v>57</v>
@@ -63117,21 +63117,21 @@
         <v>56</v>
       </c>
       <c r="E2699">
-        <v>10.421612159354201</v>
+        <v>13.1749762808135</v>
       </c>
       <c r="F2699">
-        <v>3.8288379438153202</v>
+        <v>5.9439044406854302</v>
       </c>
       <c r="G2699">
-        <v>11.102702373746601</v>
+        <v>14.4537192445404</v>
       </c>
     </row>
     <row r="2700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2700" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2700" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2700" t="s">
         <v>57</v>
@@ -63140,21 +63140,21 @@
         <v>56</v>
       </c>
       <c r="E2700">
-        <v>9.6762596079270207</v>
+        <v>13.3996268604763</v>
       </c>
       <c r="F2700">
-        <v>3.37194306001747</v>
+        <v>4.2673176586703701</v>
       </c>
       <c r="G2700">
-        <v>10.2469507659596</v>
+        <v>14.062716664997501</v>
       </c>
     </row>
     <row r="2701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2701" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2701" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2701" t="s">
         <v>57</v>
@@ -63163,17 +63163,17 @@
         <v>56</v>
       </c>
       <c r="E2701">
-        <v>6.59696900098825</v>
+        <v>13.829678231976301</v>
       </c>
       <c r="F2701">
-        <v>0.90553851381374095</v>
+        <v>5.0576674465607097</v>
       </c>
       <c r="G2701">
-        <v>6.6588287258345904</v>
+        <v>14.725488107359901</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2701">
+  <autoFilter ref="A1:G2701" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="All"/>
@@ -63184,6 +63184,9 @@
         <filter val="Annual"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2594:G2701">
+      <sortCondition ref="E1:E2701"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOCA2_inventory_full.xlsx
+++ b/LOCA2_inventory_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/LOCA2_Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6CF44-C883-5D48-94BD-53FE08DF0571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881BFC36-223C-CE48-97E1-CA693570E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G2701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2604" sqref="K2604"/>
+      <selection activeCell="G2698" sqref="A1:G2698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60757,7 +60757,7 @@
         <v>6.49846135635197</v>
       </c>
     </row>
-    <row r="2597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2597" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2597" t="s">
         <v>27</v>
       </c>
@@ -60803,7 +60803,7 @@
         <v>6.6588287258345904</v>
       </c>
     </row>
-    <row r="2599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2599" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2599" t="s">
         <v>30</v>
       </c>
@@ -60826,7 +60826,7 @@
         <v>6.68131723539602</v>
       </c>
     </row>
-    <row r="2600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2600" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2600" t="s">
         <v>29</v>
       </c>
@@ -60895,7 +60895,7 @@
         <v>8.1657822650374392</v>
       </c>
     </row>
-    <row r="2603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2603" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2603" t="s">
         <v>49</v>
       </c>
@@ -60918,7 +60918,7 @@
         <v>9.3994680700558799</v>
       </c>
     </row>
-    <row r="2604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2604" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2604" t="s">
         <v>43</v>
       </c>
@@ -60941,7 +60941,7 @@
         <v>9.5958324287161201</v>
       </c>
     </row>
-    <row r="2605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2605" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2605" t="s">
         <v>41</v>
       </c>
@@ -60964,7 +60964,7 @@
         <v>9.7308786859152594</v>
       </c>
     </row>
-    <row r="2606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2606" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2606" t="s">
         <v>43</v>
       </c>
@@ -60987,7 +60987,7 @@
         <v>9.8483501156285005</v>
       </c>
     </row>
-    <row r="2607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2607" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2607" t="s">
         <v>51</v>
       </c>
@@ -61079,7 +61079,7 @@
         <v>10.193134944657601</v>
       </c>
     </row>
-    <row r="2611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2611" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2611" t="s">
         <v>37</v>
       </c>
@@ -61125,7 +61125,7 @@
         <v>9.9206854601887198</v>
       </c>
     </row>
-    <row r="2613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2613" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2613" t="s">
         <v>50</v>
       </c>
@@ -61148,7 +61148,7 @@
         <v>9.9020199959402202</v>
       </c>
     </row>
-    <row r="2614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2614" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2614" t="s">
         <v>34</v>
       </c>
@@ -61171,7 +61171,7 @@
         <v>9.9307602931497598</v>
       </c>
     </row>
-    <row r="2615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2615" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2615" t="s">
         <v>50</v>
       </c>
@@ -61217,7 +61217,7 @@
         <v>10.0861290890013</v>
       </c>
     </row>
-    <row r="2617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2617" t="s">
         <v>41</v>
       </c>
@@ -61240,7 +61240,7 @@
         <v>10.323759005323501</v>
       </c>
     </row>
-    <row r="2618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2618" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2618" t="s">
         <v>32</v>
       </c>
@@ -61263,7 +61263,7 @@
         <v>10.1464279428772</v>
       </c>
     </row>
-    <row r="2619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2619" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2619" t="s">
         <v>46</v>
       </c>
@@ -61286,7 +61286,7 @@
         <v>10.395672176439501</v>
       </c>
     </row>
-    <row r="2620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2620" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2620" t="s">
         <v>34</v>
       </c>
@@ -61309,7 +61309,7 @@
         <v>10.443658362853499</v>
       </c>
     </row>
-    <row r="2621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2621" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2621" t="s">
         <v>7</v>
       </c>
@@ -61355,7 +61355,7 @@
         <v>10.595281968876501</v>
       </c>
     </row>
-    <row r="2623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2623" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2623" t="s">
         <v>34</v>
       </c>
@@ -61401,7 +61401,7 @@
         <v>11.102702373746601</v>
       </c>
     </row>
-    <row r="2625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2625" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2625" t="s">
         <v>49</v>
       </c>
@@ -61424,7 +61424,7 @@
         <v>10.7582526462246</v>
       </c>
     </row>
-    <row r="2626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2626" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2626" t="s">
         <v>21</v>
       </c>
@@ -61447,7 +61447,7 @@
         <v>10.9064201276129</v>
       </c>
     </row>
-    <row r="2627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2627" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2627" t="s">
         <v>32</v>
       </c>
@@ -61470,7 +61470,7 @@
         <v>10.9590145542379</v>
       </c>
     </row>
-    <row r="2628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2628" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2628" t="s">
         <v>16</v>
       </c>
@@ -61493,7 +61493,7 @@
         <v>10.676141625137801</v>
       </c>
     </row>
-    <row r="2629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2629" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2629" t="s">
         <v>21</v>
       </c>
@@ -61516,7 +61516,7 @@
         <v>10.875201147565001</v>
       </c>
     </row>
-    <row r="2630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2630" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2630" t="s">
         <v>44</v>
       </c>
@@ -61539,7 +61539,7 @@
         <v>10.900917392586701</v>
       </c>
     </row>
-    <row r="2631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2631" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2631" t="s">
         <v>32</v>
       </c>
@@ -61585,7 +61585,7 @@
         <v>10.6573918009989</v>
       </c>
     </row>
-    <row r="2633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2633" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2633" t="s">
         <v>7</v>
       </c>
@@ -61608,7 +61608,7 @@
         <v>10.989540481749</v>
       </c>
     </row>
-    <row r="2634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2634" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2634" t="s">
         <v>33</v>
       </c>
@@ -61631,7 +61631,7 @@
         <v>10.9407495172862</v>
       </c>
     </row>
-    <row r="2635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2635" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2635" t="s">
         <v>33</v>
       </c>
@@ -61654,7 +61654,7 @@
         <v>11.285388783732699</v>
       </c>
     </row>
-    <row r="2636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2636" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
         <v>49</v>
       </c>
@@ -61677,7 +61677,7 @@
         <v>11.1126054550676</v>
       </c>
     </row>
-    <row r="2637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2637" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2637" t="s">
         <v>21</v>
       </c>
@@ -61723,7 +61723,7 @@
         <v>11.2498888883401</v>
       </c>
     </row>
-    <row r="2639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2639" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2639" t="s">
         <v>16</v>
       </c>
@@ -61746,7 +61746,7 @@
         <v>10.9325202949731</v>
       </c>
     </row>
-    <row r="2640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2640" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2640" t="s">
         <v>46</v>
       </c>
@@ -61769,7 +61769,7 @@
         <v>11.4581848475227</v>
       </c>
     </row>
-    <row r="2641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2641" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2641" t="s">
         <v>21</v>
       </c>
@@ -61792,7 +61792,7 @@
         <v>11.1198021565134</v>
       </c>
     </row>
-    <row r="2642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2642" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2642" t="s">
         <v>37</v>
       </c>
@@ -61815,7 +61815,7 @@
         <v>11.360017605620101</v>
       </c>
     </row>
-    <row r="2643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2643" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2643" t="s">
         <v>43</v>
       </c>
@@ -61838,7 +61838,7 @@
         <v>11.057576588023201</v>
       </c>
     </row>
-    <row r="2644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2644" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2644" t="s">
         <v>46</v>
       </c>
@@ -61861,7 +61861,7 @@
         <v>11.298229949863799</v>
       </c>
     </row>
-    <row r="2645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2645" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2645" t="s">
         <v>45</v>
       </c>
@@ -61884,7 +61884,7 @@
         <v>11.248110952511</v>
       </c>
     </row>
-    <row r="2646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2646" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2646" t="s">
         <v>37</v>
       </c>
@@ -61907,7 +61907,7 @@
         <v>11.3573764576155</v>
       </c>
     </row>
-    <row r="2647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2647" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2647" t="s">
         <v>33</v>
       </c>
@@ -61930,7 +61930,7 @@
         <v>11.2445542374964</v>
       </c>
     </row>
-    <row r="2648" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2648" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2648" t="s">
         <v>46</v>
       </c>
@@ -61953,7 +61953,7 @@
         <v>11.6262633722103</v>
       </c>
     </row>
-    <row r="2649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2649" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2649" t="s">
         <v>21</v>
       </c>
@@ -61976,7 +61976,7 @@
         <v>11.248555462813799</v>
       </c>
     </row>
-    <row r="2650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2650" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2650" t="s">
         <v>21</v>
       </c>
@@ -61999,7 +61999,7 @@
         <v>11.6051712611232</v>
       </c>
     </row>
-    <row r="2651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2651" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2651" t="s">
         <v>16</v>
       </c>
@@ -62068,7 +62068,7 @@
         <v>11.582314103839501</v>
       </c>
     </row>
-    <row r="2654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2654" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2654" t="s">
         <v>44</v>
       </c>
@@ -62091,7 +62091,7 @@
         <v>11.433722053644599</v>
       </c>
     </row>
-    <row r="2655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2655" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2655" t="s">
         <v>44</v>
       </c>
@@ -62114,7 +62114,7 @@
         <v>11.6520384482716</v>
       </c>
     </row>
-    <row r="2656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2656" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2656" t="s">
         <v>47</v>
       </c>
@@ -62137,7 +62137,7 @@
         <v>11.5684916907952</v>
       </c>
     </row>
-    <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2657" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2657" t="s">
         <v>44</v>
       </c>
@@ -62160,7 +62160,7 @@
         <v>11.5723809131915</v>
       </c>
     </row>
-    <row r="2658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2658" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2658" t="s">
         <v>21</v>
       </c>
@@ -62183,7 +62183,7 @@
         <v>11.690166808048501</v>
       </c>
     </row>
-    <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2659" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2659" t="s">
         <v>16</v>
       </c>
@@ -62206,7 +62206,7 @@
         <v>11.7698768047928</v>
       </c>
     </row>
-    <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2660" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2660" t="s">
         <v>49</v>
       </c>
@@ -62229,7 +62229,7 @@
         <v>12.0349491066643</v>
       </c>
     </row>
-    <row r="2661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2661" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2661" t="s">
         <v>44</v>
       </c>
@@ -62252,7 +62252,7 @@
         <v>11.8105884696741</v>
       </c>
     </row>
-    <row r="2662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2662" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2662" t="s">
         <v>31</v>
       </c>
@@ -62321,7 +62321,7 @@
         <v>11.9808180021232</v>
       </c>
     </row>
-    <row r="2665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2665" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2665" t="s">
         <v>47</v>
       </c>
@@ -62344,7 +62344,7 @@
         <v>11.8498945142984</v>
       </c>
     </row>
-    <row r="2666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2666" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2666" t="s">
         <v>21</v>
       </c>
@@ -62367,12 +62367,12 @@
         <v>12.004165943538</v>
       </c>
     </row>
-    <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2667" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2667" t="s">
         <v>48</v>
       </c>
       <c r="B2667" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2667" t="s">
         <v>57</v>
@@ -62381,21 +62381,21 @@
         <v>56</v>
       </c>
       <c r="E2667">
-        <v>11.8207444774007</v>
+        <v>11.8680242669114</v>
       </c>
       <c r="F2667">
-        <v>5.1332251070842396</v>
+        <v>1.4035668847618199</v>
       </c>
       <c r="G2667">
-        <v>12.887202954869601</v>
-      </c>
-    </row>
-    <row r="2668" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11.9507321951418</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2668" t="s">
         <v>48</v>
       </c>
       <c r="B2668" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2668" t="s">
         <v>57</v>
@@ -62404,21 +62404,21 @@
         <v>56</v>
       </c>
       <c r="E2668">
-        <v>11.8680242669114</v>
+        <v>11.874342087037901</v>
       </c>
       <c r="F2668">
-        <v>1.4035668847618199</v>
+        <v>3.0413812651490999</v>
       </c>
       <c r="G2668">
-        <v>11.9507321951418</v>
-      </c>
-    </row>
-    <row r="2669" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.2576506721312</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2669" t="s">
         <v>48</v>
       </c>
       <c r="B2669" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2669" t="s">
         <v>57</v>
@@ -62427,16 +62427,16 @@
         <v>56</v>
       </c>
       <c r="E2669">
-        <v>11.874342087037901</v>
+        <v>12.1626477380544</v>
       </c>
       <c r="F2669">
-        <v>3.0413812651490999</v>
+        <v>3.2202484376209202</v>
       </c>
       <c r="G2669">
-        <v>12.2576506721312</v>
-      </c>
-    </row>
-    <row r="2670" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.581732790041199</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2670" t="s">
         <v>31</v>
       </c>
@@ -62459,7 +62459,7 @@
         <v>12.108261642366299</v>
       </c>
     </row>
-    <row r="2671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2671" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2671" t="s">
         <v>44</v>
       </c>
@@ -62482,7 +62482,7 @@
         <v>12.251938622112</v>
       </c>
     </row>
-    <row r="2672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2672" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2672" t="s">
         <v>19</v>
       </c>
@@ -62505,7 +62505,7 @@
         <v>12.166347027764701</v>
       </c>
     </row>
-    <row r="2673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2673" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2673" t="s">
         <v>33</v>
       </c>
@@ -62551,7 +62551,7 @@
         <v>12.3012194517454</v>
       </c>
     </row>
-    <row r="2675" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2675" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2675" t="s">
         <v>48</v>
       </c>
@@ -62574,7 +62574,7 @@
         <v>12.8054675822478</v>
       </c>
     </row>
-    <row r="2676" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2676" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2676" t="s">
         <v>47</v>
       </c>
@@ -62597,7 +62597,7 @@
         <v>12.3109707172099</v>
       </c>
     </row>
-    <row r="2677" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2677" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2677" t="s">
         <v>31</v>
       </c>
@@ -62620,7 +62620,7 @@
         <v>12.449497981846401</v>
       </c>
     </row>
-    <row r="2678" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2678" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2678" t="s">
         <v>44</v>
       </c>
@@ -62643,7 +62643,7 @@
         <v>12.4759769156567</v>
       </c>
     </row>
-    <row r="2679" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2679" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2679" t="s">
         <v>19</v>
       </c>
@@ -62666,12 +62666,12 @@
         <v>12.898061869908901</v>
       </c>
     </row>
-    <row r="2680" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2680" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2680" t="s">
         <v>48</v>
       </c>
       <c r="B2680" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2680" t="s">
         <v>57</v>
@@ -62680,16 +62680,16 @@
         <v>56</v>
       </c>
       <c r="E2680">
-        <v>12.1626477380544</v>
+        <v>11.8207444774007</v>
       </c>
       <c r="F2680">
-        <v>3.2202484376209202</v>
+        <v>5.1332251070842396</v>
       </c>
       <c r="G2680">
-        <v>12.581732790041199</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.887202954869601</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2681" t="s">
         <v>43</v>
       </c>
@@ -62712,7 +62712,7 @@
         <v>12.4418648119966</v>
       </c>
     </row>
-    <row r="2682" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2682" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2682" t="s">
         <v>21</v>
       </c>
@@ -62735,7 +62735,7 @@
         <v>12.450702791408901</v>
       </c>
     </row>
-    <row r="2683" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2683" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2683" t="s">
         <v>47</v>
       </c>
@@ -62758,7 +62758,7 @@
         <v>12.9491312449909</v>
       </c>
     </row>
-    <row r="2684" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2684" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2684" t="s">
         <v>31</v>
       </c>
@@ -62781,7 +62781,7 @@
         <v>12.674778104566499</v>
       </c>
     </row>
-    <row r="2685" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2685" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2685" t="s">
         <v>47</v>
       </c>
@@ -62827,7 +62827,7 @@
         <v>12.3874936932375</v>
       </c>
     </row>
-    <row r="2687" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2687" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2687" t="s">
         <v>44</v>
       </c>
@@ -62850,7 +62850,7 @@
         <v>13.148003650744799</v>
       </c>
     </row>
-    <row r="2688" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2688" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2688" t="s">
         <v>31</v>
       </c>
@@ -62873,7 +62873,7 @@
         <v>12.8767231856555</v>
       </c>
     </row>
-    <row r="2689" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2689" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2689" t="s">
         <v>19</v>
       </c>
@@ -62896,7 +62896,7 @@
         <v>12.854571171377099</v>
       </c>
     </row>
-    <row r="2690" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2690" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2690" t="s">
         <v>19</v>
       </c>
@@ -62919,7 +62919,7 @@
         <v>13.149524706239299</v>
       </c>
     </row>
-    <row r="2691" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2691" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2691" t="s">
         <v>47</v>
       </c>
@@ -62942,7 +62942,7 @@
         <v>12.9510617325376</v>
       </c>
     </row>
-    <row r="2692" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2692" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
         <v>31</v>
       </c>
@@ -62965,7 +62965,7 @@
         <v>12.998846102635399</v>
       </c>
     </row>
-    <row r="2693" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2693" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2693" t="s">
         <v>47</v>
       </c>
@@ -62988,7 +62988,7 @@
         <v>13.374228949737599</v>
       </c>
     </row>
-    <row r="2694" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2694" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2694" t="s">
         <v>44</v>
       </c>
@@ -63011,7 +63011,7 @@
         <v>13.239335330748199</v>
       </c>
     </row>
-    <row r="2695" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2695" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2695" t="s">
         <v>48</v>
       </c>
@@ -63034,7 +63034,7 @@
         <v>13.4354009988537</v>
       </c>
     </row>
-    <row r="2696" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2696" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2696" t="s">
         <v>47</v>
       </c>
@@ -63057,7 +63057,7 @@
         <v>12.7318498263213</v>
       </c>
     </row>
-    <row r="2697" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2697" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2697" t="s">
         <v>48</v>
       </c>
@@ -63103,7 +63103,7 @@
         <v>13.7422705547518</v>
       </c>
     </row>
-    <row r="2699" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2699" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2699" t="s">
         <v>45</v>
       </c>
@@ -63126,7 +63126,7 @@
         <v>14.4537192445404</v>
       </c>
     </row>
-    <row r="2700" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2700" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2700" t="s">
         <v>48</v>
       </c>
@@ -63149,7 +63149,7 @@
         <v>14.062716664997501</v>
       </c>
     </row>
-    <row r="2701" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2701" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2701" t="s">
         <v>47</v>
       </c>
@@ -63174,6 +63174,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G2701" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="r1i1p1f1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="All"/>
@@ -63184,7 +63189,7 @@
         <filter val="Annual"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2594:G2701">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2594:G2698">
       <sortCondition ref="E1:E2701"/>
     </sortState>
   </autoFilter>
